--- a/datos/cg_i.xlsx
+++ b/datos/cg_i.xlsx
@@ -385,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -395,6 +395,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -626,856 +627,856 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
-        <v>401.0</v>
+      <c r="B2" s="3">
+        <v>4.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
-        <v>430.0</v>
+      <c r="B3" s="3">
+        <v>4.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>500.0</v>
+      <c r="B4" s="3">
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>95.0</v>
+      <c r="B5" s="3">
+        <v>0.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
-        <v>304.0</v>
+      <c r="B6" s="3">
+        <v>3.04</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2">
-        <v>318.0</v>
+      <c r="B7" s="3">
+        <v>3.18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="2">
-        <v>100.0</v>
+      <c r="B8" s="3">
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="2">
-        <v>200.0</v>
+      <c r="B9" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="2">
-        <v>250.0</v>
+      <c r="B10" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="2">
-        <v>129.0</v>
+      <c r="B11" s="3">
+        <v>1.29</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="2">
-        <v>1110.0</v>
+      <c r="B12" s="3">
+        <v>11.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
-        <v>109.0</v>
+      <c r="B13" s="3">
+        <v>1.09</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
-        <v>200.0</v>
+      <c r="B14" s="3">
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>350.0</v>
+      <c r="B15" s="3">
+        <v>3.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2">
-        <v>338.0</v>
+      <c r="B16" s="3">
+        <v>3.38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="2">
-        <v>399.0</v>
+      <c r="B17" s="3">
+        <v>3.99</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2">
-        <v>500.0</v>
+      <c r="B18" s="3">
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="2">
-        <v>230.0</v>
+      <c r="B19" s="3">
+        <v>2.3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="2">
-        <v>280.0</v>
+      <c r="B20" s="3">
+        <v>2.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B21" s="2">
-        <v>900.0</v>
+      <c r="B21" s="3">
+        <v>9.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="2">
-        <v>322.0</v>
+      <c r="B22" s="3">
+        <v>3.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="2">
-        <v>422.0</v>
+      <c r="B23" s="3">
+        <v>4.22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="2">
-        <v>535.0</v>
+      <c r="B24" s="3">
+        <v>5.35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="2">
-        <v>535.0</v>
+      <c r="B25" s="3">
+        <v>5.35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="2">
-        <v>300.0</v>
+      <c r="B26" s="3">
+        <v>3.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="2">
-        <v>230.0</v>
+      <c r="B27" s="3">
+        <v>2.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="2">
-        <v>1000.0</v>
+      <c r="B28" s="3">
+        <v>10.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B29" s="2">
-        <v>175.0</v>
+      <c r="B29" s="3">
+        <v>1.75</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="2">
-        <v>268.0</v>
+      <c r="B30" s="3">
+        <v>2.68</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B31" s="2">
-        <v>500.0</v>
+      <c r="B31" s="3">
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="2">
-        <v>600.0</v>
+      <c r="B32" s="3">
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="2">
-        <v>120.0</v>
+      <c r="B33" s="3">
+        <v>1.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2">
-        <v>115.0</v>
+      <c r="B34" s="3">
+        <v>1.15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="2">
-        <v>85.0</v>
+      <c r="B35" s="3">
+        <v>0.85</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="2">
-        <v>180.0</v>
+      <c r="B36" s="3">
+        <v>1.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="2">
-        <v>169.0</v>
+      <c r="B37" s="3">
+        <v>1.69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="2">
-        <v>194.0</v>
+      <c r="B38" s="3">
+        <v>1.94</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="2">
-        <v>380.0</v>
+      <c r="B39" s="3">
+        <v>3.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B40" s="2">
-        <v>240.0</v>
+      <c r="B40" s="3">
+        <v>2.4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B41" s="2">
-        <v>840.0</v>
+      <c r="B41" s="3">
+        <v>8.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="2">
-        <v>1000.0</v>
+      <c r="B42" s="3">
+        <v>10.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="2">
-        <v>2500.0</v>
+      <c r="B43" s="3">
+        <v>25.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2">
-        <v>230.0</v>
+      <c r="B44" s="3">
+        <v>2.3</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="2">
-        <v>675.0</v>
+      <c r="B45" s="3">
+        <v>6.75</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="2">
-        <v>189.0</v>
+      <c r="B46" s="3">
+        <v>1.89</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="2">
-        <v>160.0</v>
+      <c r="B47" s="3">
+        <v>1.6</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="2">
-        <v>400.0</v>
+      <c r="B48" s="3">
+        <v>4.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="2">
-        <v>95.0</v>
+      <c r="B49" s="3">
+        <v>0.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B50" s="2">
-        <v>230.0</v>
+      <c r="B50" s="3">
+        <v>2.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B51" s="2">
-        <v>325.0</v>
+      <c r="B51" s="3">
+        <v>3.25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B52" s="2">
-        <v>312.0</v>
+      <c r="B52" s="3">
+        <v>3.12</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B53" s="2">
-        <v>213.0</v>
+      <c r="B53" s="3">
+        <v>2.13</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B54" s="2">
-        <v>294.0</v>
+      <c r="B54" s="3">
+        <v>2.94</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B55" s="2">
-        <v>550.0</v>
+      <c r="B55" s="3">
+        <v>5.5</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B56" s="2">
-        <v>550.0</v>
+      <c r="B56" s="3">
+        <v>5.5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B57" s="2">
-        <v>540.0</v>
+      <c r="B57" s="3">
+        <v>5.4</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B58" s="2">
-        <v>540.0</v>
+      <c r="B58" s="3">
+        <v>5.4</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="2">
-        <v>540.0</v>
+      <c r="B59" s="3">
+        <v>5.4</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B60" s="2">
-        <v>540.0</v>
+      <c r="B60" s="3">
+        <v>5.4</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="2">
-        <v>540.0</v>
+      <c r="B61" s="3">
+        <v>5.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="2">
-        <v>540.0</v>
+      <c r="B62" s="3">
+        <v>5.4</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="2">
-        <v>898.0</v>
+      <c r="B63" s="3">
+        <v>8.98</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="2">
-        <v>860.0</v>
+      <c r="B64" s="3">
+        <v>8.6</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B65" s="2">
-        <v>860.0</v>
+      <c r="B65" s="3">
+        <v>8.6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B66" s="2">
-        <v>1110.0</v>
+      <c r="B66" s="3">
+        <v>11.1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B67" s="2">
-        <v>1120.0</v>
+      <c r="B67" s="3">
+        <v>11.2</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B68" s="2">
-        <v>1120.0</v>
+      <c r="B68" s="3">
+        <v>11.2</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B69" s="2">
-        <v>219.0</v>
+      <c r="B69" s="3">
+        <v>2.19</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="2">
-        <v>719.0</v>
+      <c r="B70" s="3">
+        <v>7.19</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B71" s="2">
-        <v>250.0</v>
+      <c r="B71" s="3">
+        <v>2.5</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B72" s="2">
-        <v>982.0</v>
+      <c r="B72" s="3">
+        <v>9.82</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="2">
-        <v>399.0</v>
+      <c r="B73" s="3">
+        <v>3.99</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="2">
-        <v>489.0</v>
+      <c r="B74" s="3">
+        <v>4.89</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B75" s="2">
-        <v>419.0</v>
+      <c r="B75" s="3">
+        <v>4.19</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B76" s="2">
-        <v>430.0</v>
+      <c r="B76" s="3">
+        <v>4.3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B77" s="2">
-        <v>287.0</v>
+      <c r="B77" s="3">
+        <v>2.87</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B78" s="2">
-        <v>50.0</v>
+      <c r="B78" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B79" s="2">
-        <v>50.0</v>
+      <c r="B79" s="3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B80" s="2">
-        <v>408.0</v>
+      <c r="B80" s="3">
+        <v>4.08</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B81" s="2">
-        <v>1284.0</v>
+      <c r="B81" s="3">
+        <v>12.84</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B82" s="2">
-        <v>799.0</v>
+      <c r="B82" s="3">
+        <v>7.99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="2">
-        <v>1750.0</v>
+      <c r="B83" s="3">
+        <v>17.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B84" s="2">
-        <v>879.0</v>
+      <c r="B84" s="3">
+        <v>8.79</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B85" s="2">
-        <v>918.0</v>
+      <c r="B85" s="3">
+        <v>9.18</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B86" s="2">
-        <v>578.0</v>
+      <c r="B86" s="3">
+        <v>5.78</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B87" s="2">
-        <v>571.0</v>
+      <c r="B87" s="3">
+        <v>5.71</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B88" s="2">
-        <v>672.0</v>
+      <c r="B88" s="3">
+        <v>6.72</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B89" s="2">
-        <v>911.0</v>
+      <c r="B89" s="3">
+        <v>9.11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B90" s="2">
-        <v>890.0</v>
+      <c r="B90" s="3">
+        <v>8.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B91" s="2">
-        <v>3268.0</v>
+      <c r="B91" s="3">
+        <v>32.68</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B92" s="2">
-        <v>256.0</v>
+      <c r="B92" s="3">
+        <v>2.56</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B93" s="2">
-        <v>380.0</v>
+      <c r="B93" s="3">
+        <v>3.8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B94" s="2">
-        <v>578.0</v>
+      <c r="B94" s="3">
+        <v>5.78</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B95" s="2">
-        <v>285.0</v>
+      <c r="B95" s="3">
+        <v>2.85</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B96" s="2">
-        <v>629.0</v>
+      <c r="B96" s="3">
+        <v>6.29</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B97" s="2">
-        <v>579.0</v>
+      <c r="B97" s="3">
+        <v>5.79</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
+      <c r="A98" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B98" s="2">
-        <v>685.0</v>
+      <c r="B98" s="3">
+        <v>6.85</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B99" s="2">
-        <v>658.0</v>
+      <c r="B99" s="3">
+        <v>6.58</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B100" s="2">
-        <v>129.0</v>
+      <c r="B100" s="3">
+        <v>1.29</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B101" s="2">
-        <v>699.0</v>
+      <c r="B101" s="3">
+        <v>6.99</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B102" s="2">
-        <v>537.0</v>
+      <c r="B102" s="3">
+        <v>5.37</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B103" s="2">
-        <v>659.0</v>
+      <c r="B103" s="3">
+        <v>6.59</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B104" s="2">
-        <v>459.0</v>
+      <c r="B104" s="3">
+        <v>4.59</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B105" s="2">
-        <v>400.0</v>
+      <c r="B105" s="3">
+        <v>4.0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B106" s="2">
-        <v>1115.0</v>
+      <c r="B106" s="3">
+        <v>11.15</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B107" s="2">
-        <v>1500.0</v>
+      <c r="B107" s="3">
+        <v>15.0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="2">
-        <v>1411.0</v>
+      <c r="B108" s="3">
+        <v>14.11</v>
       </c>
     </row>
   </sheetData>
